--- a/biology/Botanique/Dactylis/Dactylis.xlsx
+++ b/biology/Botanique/Dactylis/Dactylis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dactylis (dactyle en français) est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Pooideae, originaire d'Eurasie et d'Afrique du Nord, mais introduit dans les régions tempérées de tous les continents.
 Ce sont des plantes herbacées vivaces, densément cespiteuses, pouvant atteindre 2 m de haut. Certaines espèces sont cultivées comme plantes fourragères, mais sont aussi considérées comme des mauvaises herbes dans certaines régions.
-Le nombre d'espèces rattachées au genre Dactylis varie de 1 à 5 selon les auteurs. Cinq espèces ont été reconnues par les taxonomistes russes et de nombreuses sous-espèces ont été décrites en Eurasie, mais le genre est considéré comme monotypique variable en Amérique du Nord[1].
-Dactylis glomerata a un fort pouvoir allergisant[2].
+Le nombre d'espèces rattachées au genre Dactylis varie de 1 à 5 selon les auteurs. Cinq espèces ont été reconnues par les taxonomistes russes et de nombreuses sous-espèces ont été décrites en Eurasie, mais le genre est considéré comme monotypique variable en Amérique du Nord.
+Dactylis glomerata a un fort pouvoir allergisant.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dactylis signifie doigt, allusion à la forme digitée de l'inflorescence, chaque doigt étant composé d'un groupe d'épillets[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dactylis signifie doigt, allusion à la forme digitée de l'inflorescence, chaque doigt étant composé d'un groupe d'épillets.
 </t>
         </is>
       </c>
@@ -545,12 +559,14 @@
           <t>Agriculture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En tant qu'espèce fourragère, le dactyle pelotonné est principalement cultivé seul ou en association avec d'autres espèces dans des prairies cultivées. Il convient bien aux prairies de longue durée en terrain sain.
-C'est l'une des graminées fourragères les plus riches en protéines. Son système racinaire profond lui permet un accès facilité à l'eau et aux minéraux du sol. Cette propriété est intéressante lors d'étés secs car le dactyle se dessèche moins que d'autres espèces de graminées. En revanche, le dactyle supporte mal les terrains humides ou temporairement inondés[4]. 
-Il en existe plus de 90 variétés au catalogue français et plus de 160 au catalogue européen[5].
-Il peut être pâturé et récolté en ensilage ou foin[6].
+C'est l'une des graminées fourragères les plus riches en protéines. Son système racinaire profond lui permet un accès facilité à l'eau et aux minéraux du sol. Cette propriété est intéressante lors d'étés secs car le dactyle se dessèche moins que d'autres espèces de graminées. En revanche, le dactyle supporte mal les terrains humides ou temporairement inondés. 
+Il en existe plus de 90 variétés au catalogue français et plus de 160 au catalogue européen.
+Il peut être pâturé et récolté en ensilage ou foin.
 Le dactyle peut être un hôte de l'ergot du seigle.
 </t>
         </is>
@@ -580,9 +596,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 septembre 2016)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (19 septembre 2016) :
 Dactylis glomerata L. (1753), le dactyle pelotonné
 Dactylis glomerata subsp. glomerata
 Dactylis glomerata subsp. hackelii (Asch. &amp; Graebn.) Cif. &amp; Giacom. (1950), synonyme de Dactylis marina Borrill
